--- a/WALVIS-corpus/WALVIS_100samples_quality-scores.xlsx
+++ b/WALVIS-corpus/WALVIS_100samples_quality-scores.xlsx
@@ -142,6 +142,9 @@
     <t xml:space="preserve">C0007610</t>
   </si>
   <si>
+    <t xml:space="preserve">C0007610 codes for cell nuclues</t>
+  </si>
+  <si>
     <t xml:space="preserve">masochist</t>
   </si>
   <si>
@@ -595,7 +598,7 @@
     <t xml:space="preserve">C0155078</t>
   </si>
   <si>
-    <t xml:space="preserve">Not the same thing as far as I know</t>
+    <t xml:space="preserve">Hard to find sources, but seems to be the same thing</t>
   </si>
   <si>
     <t xml:space="preserve">lyserende werking</t>
@@ -1333,10 +1336,7 @@
     <t xml:space="preserve">good</t>
   </si>
   <si>
-    <t xml:space="preserve">somehow related</t>
-  </si>
-  <si>
-    <t xml:space="preserve">broad</t>
+    <t xml:space="preserve">incorrect (but related)</t>
   </si>
 </sst>
 </file>
@@ -1351,6 +1351,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1464,16 +1465,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1523,10 +1520,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1610,19 +1603,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J97" activeCellId="0" sqref="J97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I91" activeCellId="0" sqref="I91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="82.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.85"/>
@@ -1866,7 +1859,10 @@
         <v>39</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,10 +1870,10 @@
         <v>3758</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>29</v>
@@ -1886,19 +1882,19 @@
         <v>38</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>3623</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1906,10 +1902,10 @@
         <v>2129</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>90</v>
@@ -1918,13 +1914,13 @@
         <v>98</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>2053</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>1</v>
@@ -1935,10 +1931,10 @@
         <v>7666</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>290</v>
@@ -1947,13 +1943,13 @@
         <v>296</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>6899</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>1</v>
@@ -1964,10 +1960,10 @@
         <v>6470</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>18</v>
@@ -1976,19 +1972,19 @@
         <v>27</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>5743</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,10 +1992,10 @@
         <v>7422</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>103</v>
@@ -2008,19 +2004,19 @@
         <v>114</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>6664</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,10 +2024,10 @@
         <v>1458</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>204</v>
@@ -2040,13 +2036,13 @@
         <v>215</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1405</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>1</v>
@@ -2057,10 +2053,10 @@
         <v>6550</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>3</v>
@@ -2069,19 +2065,19 @@
         <v>16</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>5818</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,10 +2085,10 @@
         <v>6674</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>38</v>
@@ -2101,13 +2097,13 @@
         <v>56</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>5939</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>1</v>
@@ -2118,10 +2114,10 @@
         <v>3102</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>43</v>
@@ -2130,19 +2126,19 @@
         <v>59</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>2994</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,10 +2146,10 @@
         <v>2790</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>86</v>
@@ -2162,19 +2158,19 @@
         <v>107</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>2691</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,10 +2178,10 @@
         <v>625</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>195</v>
@@ -2194,19 +2190,19 @@
         <v>213</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>604</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2214,10 +2210,10 @@
         <v>5957</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>134</v>
@@ -2226,19 +2222,19 @@
         <v>147</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>5253</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,10 +2242,10 @@
         <v>68</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>14</v>
@@ -2258,13 +2254,13 @@
         <v>32</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>66</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>1</v>
@@ -2275,10 +2271,10 @@
         <v>2564</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>60</v>
@@ -2287,13 +2283,13 @@
         <v>70</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>2470</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>1</v>
@@ -2304,10 +2300,10 @@
         <v>4841</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>168</v>
@@ -2316,13 +2312,13 @@
         <v>189</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>4634</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>1</v>
@@ -2333,10 +2329,10 @@
         <v>3477</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>51</v>
@@ -2345,13 +2341,13 @@
         <v>68</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>3354</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>1</v>
@@ -2362,10 +2358,10 @@
         <v>341</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>85</v>
@@ -2374,13 +2370,13 @@
         <v>95</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>330</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>1</v>
@@ -2391,10 +2387,10 @@
         <v>3547</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>90</v>
@@ -2403,13 +2399,13 @@
         <v>102</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>3421</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>1</v>
@@ -2420,10 +2416,10 @@
         <v>423</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>150</v>
@@ -2432,13 +2428,13 @@
         <v>155</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>408</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>1</v>
@@ -2449,10 +2445,10 @@
         <v>719</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>109</v>
@@ -2461,19 +2457,19 @@
         <v>115</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>695</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,10 +2477,10 @@
         <v>2398</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>102</v>
@@ -2493,13 +2489,13 @@
         <v>143</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>2309</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>1</v>
@@ -2510,10 +2506,10 @@
         <v>3736</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>30</v>
@@ -2522,19 +2518,19 @@
         <v>44</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>3602</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2542,10 +2538,10 @@
         <v>4727</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>65</v>
@@ -2554,13 +2550,13 @@
         <v>77</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>4523</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>1</v>
@@ -2571,10 +2567,10 @@
         <v>214</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>72</v>
@@ -2583,19 +2579,19 @@
         <v>86</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>205</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,10 +2599,10 @@
         <v>468</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>100</v>
@@ -2615,13 +2611,13 @@
         <v>107</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>451</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>1</v>
@@ -2632,10 +2628,10 @@
         <v>3825</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>108</v>
@@ -2644,13 +2640,13 @@
         <v>119</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>3689</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>1</v>
@@ -2661,10 +2657,10 @@
         <v>6905</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>224</v>
@@ -2673,13 +2669,13 @@
         <v>230</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>6165</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>1</v>
@@ -2690,10 +2686,10 @@
         <v>1149</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>88</v>
@@ -2702,13 +2698,13 @@
         <v>91</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>1107</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>1</v>
@@ -2719,10 +2715,10 @@
         <v>1198</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>19</v>
@@ -2731,13 +2727,13 @@
         <v>27</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>1156</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>1</v>
@@ -2748,10 +2744,10 @@
         <v>6363</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>54</v>
@@ -2760,13 +2756,13 @@
         <v>79</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>5640</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>1</v>
@@ -2777,10 +2773,10 @@
         <v>2171</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>70</v>
@@ -2789,13 +2785,13 @@
         <v>82</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>2093</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>1</v>
@@ -2806,10 +2802,10 @@
         <v>6882</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>74</v>
@@ -2818,19 +2814,19 @@
         <v>85</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>6142</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2838,10 +2834,10 @@
         <v>318</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>101</v>
@@ -2850,19 +2846,19 @@
         <v>134</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>307</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,10 +2866,10 @@
         <v>6161</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>59</v>
@@ -2882,13 +2878,13 @@
         <v>69</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>5444</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>1</v>
@@ -2899,10 +2895,10 @@
         <v>6718</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>124</v>
@@ -2911,19 +2907,19 @@
         <v>141</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>5982</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,10 +2927,10 @@
         <v>2285</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>21</v>
@@ -2943,13 +2939,13 @@
         <v>38</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>2202</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>1</v>
@@ -2960,10 +2956,10 @@
         <v>83</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>52</v>
@@ -2972,13 +2968,13 @@
         <v>57</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>81</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>1</v>
@@ -2989,10 +2985,10 @@
         <v>5624</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>24</v>
@@ -3001,13 +2997,13 @@
         <v>36</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>4932</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>1</v>
@@ -3018,10 +3014,10 @@
         <v>7098</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>52</v>
@@ -3030,13 +3026,13 @@
         <v>58</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>6350</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>1</v>
@@ -3047,10 +3043,10 @@
         <v>2747</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>69</v>
@@ -3059,13 +3055,13 @@
         <v>81</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>2649</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>1</v>
@@ -3076,10 +3072,10 @@
         <v>886</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>36</v>
@@ -3088,13 +3084,13 @@
         <v>49</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>855</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>1</v>
@@ -3105,10 +3101,10 @@
         <v>4007</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>46</v>
@@ -3117,19 +3113,19 @@
         <v>53</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>3849</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,10 +3133,10 @@
         <v>1033</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>76</v>
@@ -3149,19 +3145,19 @@
         <v>89</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>994</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,10 +3165,10 @@
         <v>252</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>54</v>
@@ -3181,13 +3177,13 @@
         <v>63</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>243</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>1</v>
@@ -3198,10 +3194,10 @@
         <v>5959</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>80</v>
@@ -3210,19 +3206,19 @@
         <v>95</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>5255</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3230,10 +3226,10 @@
         <v>7978</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>18</v>
@@ -3242,13 +3238,13 @@
         <v>26</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>7203</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>1</v>
@@ -3259,10 +3255,10 @@
         <v>943</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>31</v>
@@ -3271,13 +3267,13 @@
         <v>39</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>909</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>1</v>
@@ -3288,10 +3284,10 @@
         <v>7210</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>81</v>
@@ -3300,19 +3296,19 @@
         <v>95</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>6459</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,10 +3316,10 @@
         <v>3304</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>44</v>
@@ -3332,19 +3328,19 @@
         <v>68</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>3189</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,10 +3348,10 @@
         <v>115</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>151</v>
@@ -3364,13 +3360,13 @@
         <v>154</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>111</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>1</v>
@@ -3381,10 +3377,10 @@
         <v>2778</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>3</v>
@@ -3393,13 +3389,13 @@
         <v>11</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G59" s="0" t="n">
         <v>2680</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>1</v>
@@ -3410,10 +3406,10 @@
         <v>6885</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>90</v>
@@ -3422,13 +3418,13 @@
         <v>93</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G60" s="0" t="n">
         <v>6145</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>1</v>
@@ -3439,10 +3435,10 @@
         <v>2283</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>195</v>
@@ -3451,13 +3447,13 @@
         <v>211</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>2200</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>1</v>
@@ -3468,10 +3464,10 @@
         <v>2793</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>63</v>
@@ -3480,13 +3476,13 @@
         <v>70</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G62" s="0" t="n">
         <v>2694</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>1</v>
@@ -3497,10 +3493,10 @@
         <v>6068</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>46</v>
@@ -3509,13 +3505,13 @@
         <v>58</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G63" s="0" t="n">
         <v>5353</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>1</v>
@@ -3526,10 +3522,10 @@
         <v>3362</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>32</v>
@@ -3538,13 +3534,13 @@
         <v>41</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>3246</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>1</v>
@@ -3555,10 +3551,10 @@
         <v>150</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>24</v>
@@ -3567,19 +3563,19 @@
         <v>30</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>144</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,10 +3583,10 @@
         <v>6081</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>184</v>
@@ -3599,13 +3595,13 @@
         <v>199</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>5366</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>1</v>
@@ -3616,10 +3612,10 @@
         <v>6928</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>20</v>
@@ -3628,13 +3624,13 @@
         <v>29</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>6186</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>1</v>
@@ -3645,10 +3641,10 @@
         <v>744</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>29</v>
@@ -3657,13 +3653,13 @@
         <v>49</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G68" s="0" t="n">
         <v>720</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>1</v>
@@ -3674,10 +3670,10 @@
         <v>555</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>43</v>
@@ -3686,19 +3682,19 @@
         <v>51</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G69" s="0" t="n">
         <v>535</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,10 +3702,10 @@
         <v>2428</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>233</v>
@@ -3718,13 +3714,13 @@
         <v>242</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G70" s="0" t="n">
         <v>2339</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I70" s="0" t="n">
         <v>1</v>
@@ -3735,10 +3731,10 @@
         <v>813</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>69</v>
@@ -3747,13 +3743,13 @@
         <v>80</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G71" s="0" t="n">
         <v>787</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I71" s="0" t="n">
         <v>1</v>
@@ -3764,10 +3760,10 @@
         <v>7572</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>94</v>
@@ -3776,13 +3772,13 @@
         <v>101</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G72" s="0" t="n">
         <v>6810</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I72" s="0" t="n">
         <v>1</v>
@@ -3793,10 +3789,10 @@
         <v>4630</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>29</v>
@@ -3805,13 +3801,13 @@
         <v>32</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G73" s="0" t="n">
         <v>4431</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I73" s="0" t="n">
         <v>1</v>
@@ -3822,10 +3818,10 @@
         <v>414</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>41</v>
@@ -3834,13 +3830,13 @@
         <v>44</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G74" s="0" t="n">
         <v>399</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I74" s="0" t="n">
         <v>1</v>
@@ -3851,10 +3847,10 @@
         <v>3173</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>160</v>
@@ -3863,19 +3859,19 @@
         <v>190</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G75" s="0" t="n">
         <v>3065</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3883,10 +3879,10 @@
         <v>3211</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>74</v>
@@ -3895,19 +3891,19 @@
         <v>87</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G76" s="0" t="n">
         <v>3100</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3915,10 +3911,10 @@
         <v>6134</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>71</v>
@@ -3927,13 +3923,13 @@
         <v>79</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G77" s="0" t="n">
         <v>5417</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I77" s="0" t="n">
         <v>1</v>
@@ -3944,10 +3940,10 @@
         <v>3989</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>64</v>
@@ -3956,13 +3952,13 @@
         <v>81</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G78" s="0" t="n">
         <v>3832</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I78" s="0" t="n">
         <v>1</v>
@@ -3973,10 +3969,10 @@
         <v>482</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>197</v>
@@ -3985,13 +3981,13 @@
         <v>206</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G79" s="0" t="n">
         <v>465</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>1</v>
@@ -4002,10 +3998,10 @@
         <v>6435</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>10</v>
@@ -4014,19 +4010,19 @@
         <v>33</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G80" s="0" t="n">
         <v>5708</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I80" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4034,10 +4030,10 @@
         <v>7117</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>60</v>
@@ -4046,13 +4042,13 @@
         <v>75</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G81" s="0" t="n">
         <v>6368</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I81" s="0" t="n">
         <v>1</v>
@@ -4063,10 +4059,10 @@
         <v>6156</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>46</v>
@@ -4075,13 +4071,13 @@
         <v>74</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G82" s="0" t="n">
         <v>5439</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I82" s="0" t="n">
         <v>1</v>
@@ -4092,10 +4088,10 @@
         <v>1120</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>92</v>
@@ -4104,13 +4100,13 @@
         <v>102</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G83" s="0" t="n">
         <v>1078</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I83" s="0" t="n">
         <v>1</v>
@@ -4121,10 +4117,10 @@
         <v>3517</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>48</v>
@@ -4133,19 +4129,19 @@
         <v>63</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G84" s="0" t="n">
         <v>3393</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4153,10 +4149,10 @@
         <v>5793</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>53</v>
@@ -4165,13 +4161,13 @@
         <v>59</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G85" s="0" t="n">
         <v>5090</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I85" s="0" t="n">
         <v>1</v>
@@ -4182,10 +4178,10 @@
         <v>1603</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>130</v>
@@ -4194,13 +4190,13 @@
         <v>145</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>1544</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I86" s="0" t="n">
         <v>1</v>
@@ -4211,10 +4207,10 @@
         <v>2635</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D87" s="0" t="n">
         <v>13</v>
@@ -4223,13 +4219,13 @@
         <v>24</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G87" s="0" t="n">
         <v>2540</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I87" s="0" t="n">
         <v>1</v>
@@ -4240,10 +4236,10 @@
         <v>814</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D88" s="0" t="n">
         <v>139</v>
@@ -4252,13 +4248,13 @@
         <v>157</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G88" s="0" t="n">
         <v>788</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I88" s="0" t="n">
         <v>1</v>
@@ -4269,10 +4265,10 @@
         <v>751</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D89" s="0" t="n">
         <v>38</v>
@@ -4281,13 +4277,13 @@
         <v>48</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G89" s="0" t="n">
         <v>727</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I89" s="0" t="n">
         <v>1</v>
@@ -4298,10 +4294,10 @@
         <v>2569</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D90" s="0" t="n">
         <v>101</v>
@@ -4310,13 +4306,13 @@
         <v>119</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>2475</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I90" s="0" t="n">
         <v>1</v>
@@ -4327,10 +4323,10 @@
         <v>3535</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D91" s="0" t="n">
         <v>25</v>
@@ -4339,19 +4335,19 @@
         <v>32</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G91" s="0" t="n">
         <v>3409</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I91" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4359,10 +4355,10 @@
         <v>4714</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D92" s="0" t="n">
         <v>42</v>
@@ -4371,19 +4367,19 @@
         <v>50</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G92" s="0" t="n">
         <v>4510</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I92" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,10 +4387,10 @@
         <v>690</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D93" s="0" t="n">
         <v>69</v>
@@ -4403,19 +4399,19 @@
         <v>86</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G93" s="0" t="n">
         <v>667</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I93" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4423,10 +4419,10 @@
         <v>2722</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D94" s="0" t="n">
         <v>25</v>
@@ -4435,13 +4431,13 @@
         <v>32</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G94" s="0" t="n">
         <v>2625</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I94" s="0" t="n">
         <v>1</v>
@@ -4452,10 +4448,10 @@
         <v>1585</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D95" s="0" t="n">
         <v>36</v>
@@ -4464,19 +4460,19 @@
         <v>40</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G95" s="0" t="n">
         <v>1526</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I95" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4484,10 +4480,10 @@
         <v>3138</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D96" s="0" t="n">
         <v>72</v>
@@ -4496,13 +4492,13 @@
         <v>78</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>3030</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I96" s="0" t="n">
         <v>1</v>
@@ -4513,10 +4509,10 @@
         <v>5056</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D97" s="0" t="n">
         <v>53</v>
@@ -4525,19 +4521,19 @@
         <v>70</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G97" s="0" t="n">
         <v>4791</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I97" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4545,10 +4541,10 @@
         <v>2856</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D98" s="0" t="n">
         <v>18</v>
@@ -4557,19 +4553,19 @@
         <v>42</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G98" s="0" t="n">
         <v>2754</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I98" s="0" t="n">
         <v>2</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,10 +4573,10 @@
         <v>7169</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D99" s="0" t="n">
         <v>73</v>
@@ -4589,19 +4585,19 @@
         <v>87</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G99" s="0" t="n">
         <v>6419</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4609,10 +4605,10 @@
         <v>581</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D100" s="0" t="n">
         <v>13</v>
@@ -4621,13 +4617,13 @@
         <v>40</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G100" s="0" t="n">
         <v>561</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I100" s="0" t="n">
         <v>1</v>
@@ -4638,10 +4634,10 @@
         <v>4568</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D101" s="0" t="n">
         <v>91</v>
@@ -4650,83 +4646,67 @@
         <v>132</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G101" s="0" t="n">
         <v>4371</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I101" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G104" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="H104" s="4"/>
+      <c r="G104" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G105" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="H105" s="6" t="s">
+      <c r="G105" s="4" t="s">
         <v>434</v>
       </c>
+      <c r="H105" s="5" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G106" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H106" s="8" t="n">
-        <v>71</v>
+      <c r="G106" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" s="7" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G107" s="7" t="n">
+      <c r="G107" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="H107" s="8" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G108" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H108" s="10" t="n">
-        <v>6</v>
-      </c>
+      <c r="H107" s="9" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G111" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="H111" s="11"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G112" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="H112" s="12"/>
+      <c r="G112" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G113" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H113" s="14" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G114" s="15" t="n">
+      <c r="G113" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="H114" s="8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G115" s="16" t="n">
-        <v>3</v>
-      </c>
-      <c r="H115" s="10" t="s">
+      <c r="H113" s="9" t="s">
         <v>438</v>
       </c>
     </row>
